--- a/data/HR1_2/A_KPC_35_3/A_KPC_35_3_2040.xlsx
+++ b/data/HR1_2/A_KPC_35_3/A_KPC_35_3_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D806705B-5653-41BC-8407-7A6EEE5B1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076D425-10AF-4813-9303-90B4E7704225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -11640,7 +11640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11750,8 +11750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A9F42-8499-49E9-B775-98D9F5D79AA3}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40822,7 +40822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0803705A-4DEC-4AF7-AF28-EB46DB52521A}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V5" sqref="A2:V5"/>
     </sheetView>
   </sheetViews>
@@ -41277,7 +41277,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42784,7 +42784,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
